--- a/EDI_Project_Documentation/FTP-SFTP-Connection Details.xlsx
+++ b/EDI_Project_Documentation/FTP-SFTP-Connection Details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G2TECH\Desktop\FInal-SOP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPAdmin\Desktop\FInal-SOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD71202-AC12-490A-8119-D10736297DCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B554B1A8-2FE7-4E8F-B487-103EC7D6E45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendors_Details" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="107">
   <si>
     <t>No</t>
   </si>
@@ -338,6 +338,15 @@
   </si>
   <si>
     <t>RadiusPointHQ.com &amp; ftp2.ecinfosystems.com</t>
+  </si>
+  <si>
+    <t>Eversource</t>
+  </si>
+  <si>
+    <t>EDI-Eversource</t>
+  </si>
+  <si>
+    <t>S6hGATuANZmnKcgm</t>
   </si>
 </sst>
 </file>
@@ -418,7 +427,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,8 +452,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -504,16 +519,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -535,21 +562,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -558,16 +570,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -576,15 +585,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -866,44 +880,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74BABCD-655A-4067-8923-227AF76EA2B1}">
-  <dimension ref="A1:CJ28"/>
+  <dimension ref="A1:CJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26:C28"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="67.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:88" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -911,19 +925,19 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>44440</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="1" t="s">
         <v>36</v>
       </c>
@@ -938,13 +952,13 @@
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>44501</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="1" t="s">
         <v>34</v>
       </c>
@@ -956,16 +970,16 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="1" t="s">
         <v>36</v>
       </c>
@@ -977,19 +991,19 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>44287</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1000,19 +1014,19 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>44986</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1023,19 +1037,19 @@
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1046,23 +1060,23 @@
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:88" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:88" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1072,97 +1086,97 @@
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="9">
         <v>44805</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="16" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="26"/>
-      <c r="AL9" s="26"/>
-      <c r="AM9" s="26"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="26"/>
-      <c r="AP9" s="26"/>
-      <c r="AQ9" s="26"/>
-      <c r="AR9" s="26"/>
-      <c r="AS9" s="26"/>
-      <c r="AT9" s="26"/>
-      <c r="AU9" s="26"/>
-      <c r="AV9" s="26"/>
-      <c r="AW9" s="26"/>
-      <c r="AX9" s="26"/>
-      <c r="AY9" s="26"/>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="26"/>
-      <c r="BB9" s="26"/>
-      <c r="BC9" s="26"/>
-      <c r="BD9" s="26"/>
-      <c r="BE9" s="26"/>
-      <c r="BF9" s="26"/>
-      <c r="BG9" s="26"/>
-      <c r="BH9" s="26"/>
-      <c r="BI9" s="26"/>
-      <c r="BJ9" s="26"/>
-      <c r="BK9" s="26"/>
-      <c r="BL9" s="26"/>
-      <c r="BM9" s="26"/>
-      <c r="BN9" s="26"/>
-      <c r="BO9" s="26"/>
-      <c r="BP9" s="26"/>
-      <c r="BQ9" s="26"/>
-      <c r="BR9" s="26"/>
-      <c r="BS9" s="26"/>
-      <c r="BT9" s="26"/>
-      <c r="BU9" s="26"/>
-      <c r="BV9" s="26"/>
-      <c r="BW9" s="26"/>
-      <c r="BX9" s="26"/>
-      <c r="BY9" s="26"/>
-      <c r="BZ9" s="26"/>
-      <c r="CA9" s="26"/>
-      <c r="CB9" s="26"/>
-      <c r="CC9" s="26"/>
-      <c r="CD9" s="26"/>
-      <c r="CE9" s="26"/>
-      <c r="CF9" s="26"/>
-      <c r="CG9" s="26"/>
-      <c r="CH9" s="26"/>
-      <c r="CI9" s="26"/>
-      <c r="CJ9" s="26"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="17"/>
+      <c r="AP9" s="17"/>
+      <c r="AQ9" s="17"/>
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="17"/>
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="17"/>
+      <c r="AW9" s="17"/>
+      <c r="AX9" s="17"/>
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="17"/>
+      <c r="BA9" s="17"/>
+      <c r="BB9" s="17"/>
+      <c r="BC9" s="17"/>
+      <c r="BD9" s="17"/>
+      <c r="BE9" s="17"/>
+      <c r="BF9" s="17"/>
+      <c r="BG9" s="17"/>
+      <c r="BH9" s="17"/>
+      <c r="BI9" s="17"/>
+      <c r="BJ9" s="17"/>
+      <c r="BK9" s="17"/>
+      <c r="BL9" s="17"/>
+      <c r="BM9" s="17"/>
+      <c r="BN9" s="17"/>
+      <c r="BO9" s="17"/>
+      <c r="BP9" s="17"/>
+      <c r="BQ9" s="17"/>
+      <c r="BR9" s="17"/>
+      <c r="BS9" s="17"/>
+      <c r="BT9" s="17"/>
+      <c r="BU9" s="17"/>
+      <c r="BV9" s="17"/>
+      <c r="BW9" s="17"/>
+      <c r="BX9" s="17"/>
+      <c r="BY9" s="17"/>
+      <c r="BZ9" s="17"/>
+      <c r="CA9" s="17"/>
+      <c r="CB9" s="17"/>
+      <c r="CC9" s="17"/>
+      <c r="CD9" s="17"/>
+      <c r="CE9" s="17"/>
+      <c r="CF9" s="17"/>
+      <c r="CG9" s="17"/>
+      <c r="CH9" s="17"/>
+      <c r="CI9" s="17"/>
+      <c r="CJ9" s="17"/>
     </row>
     <row r="10" spans="1:88" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1171,17 +1185,17 @@
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1192,38 +1206,38 @@
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:88" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:88" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1234,19 +1248,19 @@
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>44835</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1257,47 +1271,47 @@
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:88" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:88" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="15" spans="1:88" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="18" t="s">
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="9">
         <v>45689</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1308,17 +1322,17 @@
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>45717</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1329,17 +1343,17 @@
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>45748</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1350,17 +1364,17 @@
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>45748</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1371,17 +1385,17 @@
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>45717</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1392,17 +1406,17 @@
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>45717</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1413,17 +1427,17 @@
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>45717</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1434,32 +1448,89 @@
       <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>45689</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="3" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="1" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="25" t="s">
+      <c r="A26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="25" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="25" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="16" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1473,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5986E5A9-043E-4B27-ABD7-9C6337618BF1}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,23 +1558,23 @@
     <col min="6" max="6" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="28" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="18" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1511,19 +1582,19 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="28">
         <v>21</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1531,19 +1602,19 @@
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="28">
         <v>22</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1551,19 +1622,19 @@
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="28">
         <v>21</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1571,19 +1642,19 @@
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="28">
         <v>21</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1591,19 +1662,19 @@
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1611,19 +1682,19 @@
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1631,19 +1702,19 @@
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="28">
         <v>21</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1651,19 +1722,19 @@
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="28">
         <v>21</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1671,19 +1742,19 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="28">
         <v>22</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1691,39 +1762,39 @@
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="28">
         <v>21</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="28">
         <v>21</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1731,19 +1802,19 @@
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="28">
         <v>21</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1751,47 +1822,43 @@
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="28">
         <v>21</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="A15" s="21"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="28">
         <v>22</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1799,19 +1866,19 @@
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="28">
         <v>22</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1819,19 +1886,19 @@
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="28">
         <v>22</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="25" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1839,19 +1906,19 @@
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="28">
         <v>22</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1859,19 +1926,19 @@
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="28">
         <v>22</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1879,19 +1946,19 @@
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="28">
         <v>22</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1899,19 +1966,19 @@
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="28">
         <v>22</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1919,70 +1986,90 @@
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="28">
         <v>22</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="28">
         <v>22</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="25" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="32" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="33">
         <v>22</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="30">
+        <v>22</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="16" t="s">
         <v>47</v>
       </c>
     </row>

--- a/EDI_Project_Documentation/FTP-SFTP-Connection Details.xlsx
+++ b/EDI_Project_Documentation/FTP-SFTP-Connection Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPAdmin\Desktop\FInal-SOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B554B1A8-2FE7-4E8F-B487-103EC7D6E45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226EC611-0003-4387-9688-10A0E1DF3F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="116">
   <si>
     <t>No</t>
   </si>
@@ -347,6 +347,33 @@
   </si>
   <si>
     <t>S6hGATuANZmnKcgm</t>
+  </si>
+  <si>
+    <t>Entergy</t>
+  </si>
+  <si>
+    <t>EDI-Entergy</t>
+  </si>
+  <si>
+    <t>tpbxdkLhKzgeRKvF</t>
+  </si>
+  <si>
+    <t>WeEnergies</t>
+  </si>
+  <si>
+    <t>EDI-WeEnergies</t>
+  </si>
+  <si>
+    <t>9raacWdgs95ve5n7</t>
+  </si>
+  <si>
+    <t>New Partner Onboarded - 13</t>
+  </si>
+  <si>
+    <t>Total Vendors - 26</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -459,7 +486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -532,12 +559,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -585,20 +634,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1463,7 +1516,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1520,7 +1573,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="32" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1542,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5986E5A9-043E-4B27-ABD7-9C6337618BF1}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,9 +1609,10 @@
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="19" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
@@ -1574,503 +1628,573 @@
       <c r="E1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="35" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G1" s="38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="27">
         <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="27">
         <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="26" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="27">
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="26" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="26" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>68</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="26" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="26" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="27">
         <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="27">
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="26" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="27">
         <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="27">
         <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="27">
         <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="27">
         <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="27">
         <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="26" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="27">
         <v>22</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="26" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="27">
         <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="36" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="27">
         <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="26" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="27">
         <v>22</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="26" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="27">
         <v>22</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="26" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="27">
         <v>22</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="26" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="27">
         <v>22</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="26" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="27">
         <v>22</v>
       </c>
       <c r="E24" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="36" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="31">
         <v>22</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="E25" s="29"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="1">
         <v>22</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="26" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="33">
+        <v>22</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="1">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
-        <v>47</v>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="16" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/EDI_Project_Documentation/FTP-SFTP-Connection Details.xlsx
+++ b/EDI_Project_Documentation/FTP-SFTP-Connection Details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPAdmin\Desktop\FInal-SOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226EC611-0003-4387-9688-10A0E1DF3F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3115827F-5AF6-4DAA-9C4A-7BD6E8DF75C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="123">
   <si>
     <t>No</t>
   </si>
@@ -325,9 +325,6 @@
     <t>EDI-SCE</t>
   </si>
   <si>
-    <t>FN@x+4=bzH8aA!9c</t>
-  </si>
-  <si>
     <t>Reliant Energy</t>
   </si>
   <si>
@@ -374,13 +371,37 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>Connection details required</t>
+  </si>
+  <si>
+    <t>Gnxvag2QaNY2AU5g</t>
+  </si>
+  <si>
+    <t>EDI-NRG</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Arizona Public Service</t>
+  </si>
+  <si>
+    <t>Calpine Energy</t>
+  </si>
+  <si>
+    <t>Waiting for SFTP login details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +474,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -486,7 +513,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -581,12 +608,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -627,7 +665,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -652,6 +689,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1536,7 +1579,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1</v>
@@ -1555,7 +1598,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1</v>
@@ -1573,7 +1616,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="31" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1595,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5986E5A9-043E-4B27-ABD7-9C6337618BF1}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,10 +1652,11 @@
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="19" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="19" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
@@ -1628,581 +1672,714 @@
       <c r="E1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G1" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="27">
+        <v>100</v>
+      </c>
+      <c r="D2" s="26">
         <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="30">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="27">
+        <v>100</v>
+      </c>
+      <c r="D4" s="26">
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>63</v>
       </c>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="27">
+        <v>100</v>
+      </c>
+      <c r="D5" s="26">
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>65</v>
       </c>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>68</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>70</v>
       </c>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H6" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>72</v>
       </c>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="27">
+        <v>100</v>
+      </c>
+      <c r="D8" s="26">
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="27">
+        <v>100</v>
+      </c>
+      <c r="D9" s="26">
         <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H9" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="26">
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>80</v>
       </c>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="27">
+        <v>100</v>
+      </c>
+      <c r="D11" s="26">
         <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="27">
+        <v>100</v>
+      </c>
+      <c r="D12" s="26">
         <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="27">
+        <v>100</v>
+      </c>
+      <c r="D13" s="26">
         <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="27">
+        <v>100</v>
+      </c>
+      <c r="D14" s="26">
         <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="C15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="27">
+        <v>100</v>
+      </c>
+      <c r="D16" s="26">
         <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>84</v>
       </c>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="27">
+        <v>100</v>
+      </c>
+      <c r="D17" s="26">
         <v>22</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>86</v>
       </c>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="27">
+        <v>100</v>
+      </c>
+      <c r="D18" s="26">
         <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="35" t="s">
         <v>88</v>
       </c>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="27">
+        <v>100</v>
+      </c>
+      <c r="D19" s="26">
         <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="25" t="s">
         <v>89</v>
       </c>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="27">
+        <v>100</v>
+      </c>
+      <c r="D20" s="26">
         <v>22</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="25" t="s">
         <v>93</v>
       </c>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="27">
+        <v>100</v>
+      </c>
+      <c r="D21" s="26">
         <v>22</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="25" t="s">
         <v>94</v>
       </c>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H21" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="27">
+        <v>100</v>
+      </c>
+      <c r="D22" s="26">
         <v>22</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="25" t="s">
         <v>96</v>
       </c>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="27">
+        <v>100</v>
+      </c>
+      <c r="D23" s="26">
         <v>22</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="25" t="s">
         <v>97</v>
       </c>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="H23" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="27">
+      <c r="C24" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="30">
         <v>22</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="39"/>
+      <c r="G24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="B25" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="D25" s="40">
+        <v>22</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="31">
+      <c r="C26" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="40">
         <v>22</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="E26" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="F26" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C27" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="32">
         <v>22</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="E27" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="F27" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="33">
+      <c r="C28" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="33">
         <v>22</v>
       </c>
-      <c r="E27" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="E28" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="F28" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="33"/>
+      <c r="H28" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="1">
-        <v>22</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="26" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F18" r:id="rId1" xr:uid="{B8B9FC06-5FF1-4741-8069-FFE40609484B}"/>
-    <hyperlink ref="F24" r:id="rId2" xr:uid="{8D5A6706-14F6-4C71-A780-65820712BD44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/EDI_Project_Documentation/FTP-SFTP-Connection Details.xlsx
+++ b/EDI_Project_Documentation/FTP-SFTP-Connection Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPAdmin\Desktop\FInal-SOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3115827F-5AF6-4DAA-9C4A-7BD6E8DF75C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C9935C-2734-4107-9CA7-66509E23366B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="127">
   <si>
     <t>No</t>
   </si>
@@ -364,9 +364,6 @@
     <t>9raacWdgs95ve5n7</t>
   </si>
   <si>
-    <t>New Partner Onboarded - 13</t>
-  </si>
-  <si>
     <t>Total Vendors - 26</t>
   </si>
   <si>
@@ -395,6 +392,21 @@
   </si>
   <si>
     <t>Waiting for SFTP login details</t>
+  </si>
+  <si>
+    <t>EDI-Calpine</t>
+  </si>
+  <si>
+    <t>9fQ@a6Zq4RVBC#JYus</t>
+  </si>
+  <si>
+    <t>EDI-APS</t>
+  </si>
+  <si>
+    <t>tts!gv8SpE#dYpApZ5</t>
+  </si>
+  <si>
+    <t>New Partner Onboarded - 15</t>
   </si>
 </sst>
 </file>
@@ -1640,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5986E5A9-043E-4B27-ABD7-9C6337618BF1}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,10 +1688,10 @@
         <v>53</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -1703,7 +1715,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -1726,10 +1738,10 @@
         <v>61</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1753,7 +1765,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1777,7 +1789,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -1801,7 +1813,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -1825,7 +1837,7 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1849,7 +1861,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1873,7 +1885,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -1897,7 +1909,7 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1921,7 +1933,7 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1945,7 +1957,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1969,7 +1981,7 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1993,7 +2005,7 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2023,7 +2035,7 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2047,7 +2059,7 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2071,7 +2083,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2095,7 +2107,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2119,7 +2131,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2143,7 +2155,7 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2167,7 +2179,7 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2191,7 +2203,7 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -2212,7 +2224,7 @@
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H24" s="1"/>
     </row>
@@ -2230,14 +2242,14 @@
         <v>22</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2261,7 +2273,7 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2285,7 +2297,7 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2309,36 +2321,56 @@
       </c>
       <c r="G28" s="33"/>
       <c r="H28" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="C29" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="33">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="C30" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="33">
+        <v>22</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -2362,7 +2394,7 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -2372,7 +2404,7 @@
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/EDI_Project_Documentation/FTP-SFTP-Connection Details.xlsx
+++ b/EDI_Project_Documentation/FTP-SFTP-Connection Details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPAdmin\Desktop\FInal-SOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C9935C-2734-4107-9CA7-66509E23366B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2228D1C4-119B-46E1-A930-1DFB26355130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="136">
   <si>
     <t>No</t>
   </si>
@@ -406,7 +406,34 @@
     <t>tts!gv8SpE#dYpApZ5</t>
   </si>
   <si>
-    <t>New Partner Onboarded - 15</t>
+    <t>Con Edison</t>
+  </si>
+  <si>
+    <t>EDI-ConEdison</t>
+  </si>
+  <si>
+    <t>PCC9RSVQLhwEzehP</t>
+  </si>
+  <si>
+    <t>EDI-NYSEG</t>
+  </si>
+  <si>
+    <t>EDI-PacificPower</t>
+  </si>
+  <si>
+    <t>NYSEG</t>
+  </si>
+  <si>
+    <t>PacificPower</t>
+  </si>
+  <si>
+    <t>Wgmywh4ZRw652hKV</t>
+  </si>
+  <si>
+    <t>RzPtCvR2n3VbUwut</t>
+  </si>
+  <si>
+    <t>New Partner Onboarded - 18</t>
   </si>
 </sst>
 </file>
@@ -493,7 +520,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,6 +548,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -707,6 +740,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1650,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5986E5A9-043E-4B27-ABD7-9C6337618BF1}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,38 +2407,90 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="A31" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="44">
+        <v>22</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="31" t="s">
+      <c r="A32" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="44">
+        <v>22</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="44">
+        <v>22</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="31" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="16" t="s">
-        <v>126</v>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="16" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
